--- a/state_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
+++ b/state_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U199"/>
+  <dimension ref="A1:U216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -567,10 +567,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.13502</v>
+        <v>0.17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.252659888695423</v>
+        <v>0.258085840965811</v>
       </c>
       <c r="H2" t="n">
         <v>1.38</v>
@@ -651,7 +651,7 @@
         <v>0.006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006791664799091</v>
+        <v>0.0068159942123828</v>
       </c>
       <c r="H3" t="n">
         <v>0.02</v>
@@ -662,7 +662,7 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>0.00317</v>
+        <v>0.00322</v>
       </c>
       <c r="M3" t="n">
         <v>0.011</v>
@@ -732,7 +732,7 @@
         <v>0.006</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006791664799091</v>
+        <v>0.0068159942123828</v>
       </c>
       <c r="H4" t="n">
         <v>0.02</v>
@@ -743,7 +743,7 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>0.00317</v>
+        <v>0.00322</v>
       </c>
       <c r="M4" t="n">
         <v>0.011</v>
@@ -1153,7 +1153,7 @@
         <v>0.00658</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0097889834039164</v>
+        <v>0.0097985163897252</v>
       </c>
       <c r="H9" t="n">
         <v>0.0482626358235152</v>
@@ -1234,7 +1234,7 @@
         <v>0.00658</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0097889834039164</v>
+        <v>0.0097985163897252</v>
       </c>
       <c r="H10" t="n">
         <v>0.0482626358235152</v>
@@ -1311,7 +1311,7 @@
         <v>0.178</v>
       </c>
       <c r="G11" t="n">
-        <v>0.243685714285714</v>
+        <v>0.243694285714286</v>
       </c>
       <c r="H11" t="n">
         <v>1.04</v>
@@ -1328,7 +1328,7 @@
         <v>0.3942</v>
       </c>
       <c r="N11" t="n">
-        <v>0.5854</v>
+        <v>0.58555</v>
       </c>
       <c r="O11" t="n">
         <v>1794370</v>
@@ -1388,7 +1388,7 @@
         <v>0.178</v>
       </c>
       <c r="G12" t="n">
-        <v>0.243685714285714</v>
+        <v>0.243694285714286</v>
       </c>
       <c r="H12" t="n">
         <v>1.04</v>
@@ -1405,7 +1405,7 @@
         <v>0.3942</v>
       </c>
       <c r="N12" t="n">
-        <v>0.5854</v>
+        <v>0.58555</v>
       </c>
       <c r="O12" t="n">
         <v>1794370</v>
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.255379401560582</v>
+        <v>0.259553210999342</v>
       </c>
       <c r="H15" t="n">
         <v>1.38</v>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.00474</v>
+        <v>0.00476</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00672146050223</v>
+        <v>0.0067453651129126</v>
       </c>
       <c r="H16" t="n">
         <v>0.02</v>
@@ -1715,7 +1715,7 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
-        <v>0.00358</v>
+        <v>0.00363</v>
       </c>
       <c r="M16" t="n">
         <v>0.011</v>
@@ -1782,10 +1782,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.00474</v>
+        <v>0.00476</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00672146050223</v>
+        <v>0.0067453651129126</v>
       </c>
       <c r="H17" t="n">
         <v>0.02</v>
@@ -1796,7 +1796,7 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
-        <v>0.00358</v>
+        <v>0.00363</v>
       </c>
       <c r="M17" t="n">
         <v>0.011</v>
@@ -1866,7 +1866,7 @@
         <v>146</v>
       </c>
       <c r="G18" t="n">
-        <v>424.969753369215</v>
+        <v>424.96872560272</v>
       </c>
       <c r="H18" t="n">
         <v>3360</v>
@@ -1951,7 +1951,7 @@
         <v>146</v>
       </c>
       <c r="G19" t="n">
-        <v>424.969753369215</v>
+        <v>424.96872560272</v>
       </c>
       <c r="H19" t="n">
         <v>3360</v>
@@ -2036,7 +2036,7 @@
         <v>146</v>
       </c>
       <c r="G20" t="n">
-        <v>424.969753369215</v>
+        <v>424.96872560272</v>
       </c>
       <c r="H20" t="n">
         <v>3360</v>
@@ -2121,7 +2121,7 @@
         <v>146</v>
       </c>
       <c r="G21" t="n">
-        <v>424.969753369215</v>
+        <v>424.96872560272</v>
       </c>
       <c r="H21" t="n">
         <v>3360</v>
@@ -2206,7 +2206,7 @@
         <v>0.00774</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0097288924615922</v>
+        <v>0.0097359385815378</v>
       </c>
       <c r="H22" t="n">
         <v>0.0482626358235152</v>
@@ -2287,7 +2287,7 @@
         <v>0.00774</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0097288924615922</v>
+        <v>0.0097359385815378</v>
       </c>
       <c r="H23" t="n">
         <v>0.0482626358235152</v>
@@ -2368,7 +2368,7 @@
         <v>0.17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.236558818913378</v>
+        <v>0.236586331478857</v>
       </c>
       <c r="H24" t="n">
         <v>0.894</v>
@@ -2449,7 +2449,7 @@
         <v>0.17</v>
       </c>
       <c r="G25" t="n">
-        <v>0.236558818913378</v>
+        <v>0.236586331478857</v>
       </c>
       <c r="H25" t="n">
         <v>0.894</v>
@@ -2523,10 +2523,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.196</v>
+        <v>0.1955</v>
       </c>
       <c r="G26" t="n">
-        <v>0.258617021276596</v>
+        <v>0.258623404255319</v>
       </c>
       <c r="H26" t="n">
         <v>1.04</v>
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.196</v>
+        <v>0.1955</v>
       </c>
       <c r="G27" t="n">
-        <v>0.258617021276596</v>
+        <v>0.258623404255319</v>
       </c>
       <c r="H27" t="n">
         <v>1.04</v>
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.247342788997198</v>
+        <v>0.250664800591313</v>
       </c>
       <c r="H30" t="n">
         <v>1.38</v>
@@ -2919,7 +2919,7 @@
         <v>0.006</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0112018414170307</v>
+        <v>0.0112208840729982</v>
       </c>
       <c r="H31" t="n">
         <v>0.186</v>
@@ -2930,7 +2930,7 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
-        <v>0.00395</v>
+        <v>0.00399</v>
       </c>
       <c r="M31" t="n">
         <v>0.01394</v>
@@ -3000,7 +3000,7 @@
         <v>0.006</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0112018414170307</v>
+        <v>0.0112208840729982</v>
       </c>
       <c r="H32" t="n">
         <v>0.186</v>
@@ -3011,7 +3011,7 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
-        <v>0.00395</v>
+        <v>0.00399</v>
       </c>
       <c r="M32" t="n">
         <v>0.01394</v>
@@ -3081,7 +3081,7 @@
         <v>228</v>
       </c>
       <c r="G33" t="n">
-        <v>745.823362853443</v>
+        <v>745.822544124201</v>
       </c>
       <c r="H33" t="n">
         <v>9678</v>
@@ -3166,7 +3166,7 @@
         <v>228</v>
       </c>
       <c r="G34" t="n">
-        <v>745.823362853443</v>
+        <v>745.822544124201</v>
       </c>
       <c r="H34" t="n">
         <v>9678</v>
@@ -3251,7 +3251,7 @@
         <v>228</v>
       </c>
       <c r="G35" t="n">
-        <v>745.823362853443</v>
+        <v>745.822544124201</v>
       </c>
       <c r="H35" t="n">
         <v>9678</v>
@@ -3336,7 +3336,7 @@
         <v>228</v>
       </c>
       <c r="G36" t="n">
-        <v>745.823362853443</v>
+        <v>745.822544124201</v>
       </c>
       <c r="H36" t="n">
         <v>9678</v>
@@ -3421,7 +3421,7 @@
         <v>0.00781</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0132150218820985</v>
+        <v>0.0132207082245108</v>
       </c>
       <c r="H37" t="n">
         <v>0.160839160839161</v>
@@ -3502,7 +3502,7 @@
         <v>0.00781</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0132150218820985</v>
+        <v>0.0132207082245108</v>
       </c>
       <c r="H38" t="n">
         <v>0.160839160839161</v>
@@ -3583,7 +3583,7 @@
         <v>0.19</v>
       </c>
       <c r="G39" t="n">
-        <v>0.242062781628469</v>
+        <v>0.24208355642281</v>
       </c>
       <c r="H39" t="n">
         <v>0.894</v>
@@ -3664,7 +3664,7 @@
         <v>0.19</v>
       </c>
       <c r="G40" t="n">
-        <v>0.242062781628469</v>
+        <v>0.24208355642281</v>
       </c>
       <c r="H40" t="n">
         <v>0.894</v>
@@ -3741,13 +3741,13 @@
         <v>0.202</v>
       </c>
       <c r="G41" t="n">
-        <v>0.272389830508475</v>
+        <v>0.272391525423729</v>
       </c>
       <c r="H41" t="n">
         <v>1.04</v>
       </c>
       <c r="I41" t="n">
-        <v>0.7068</v>
+        <v>0.70684</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -3755,7 +3755,7 @@
         <v>0.136</v>
       </c>
       <c r="M41" t="n">
-        <v>0.434</v>
+        <v>0.43395</v>
       </c>
       <c r="N41" t="n">
         <v>0.62806</v>
@@ -3818,13 +3818,13 @@
         <v>0.202</v>
       </c>
       <c r="G42" t="n">
-        <v>0.272389830508475</v>
+        <v>0.272391525423729</v>
       </c>
       <c r="H42" t="n">
         <v>1.04</v>
       </c>
       <c r="I42" t="n">
-        <v>0.7068</v>
+        <v>0.70684</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -3832,7 +3832,7 @@
         <v>0.136</v>
       </c>
       <c r="M42" t="n">
-        <v>0.434</v>
+        <v>0.43395</v>
       </c>
       <c r="N42" t="n">
         <v>0.62806</v>
@@ -4207,7 +4207,7 @@
         <v>0.15</v>
       </c>
       <c r="G47" t="n">
-        <v>0.237419571953571</v>
+        <v>0.240754251559512</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -4288,7 +4288,7 @@
         <v>0.008</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0131638410889212</v>
+        <v>0.0131798959619962</v>
       </c>
       <c r="H48" t="n">
         <v>0.186</v>
@@ -4299,7 +4299,7 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.00421</v>
+        <v>0.00424</v>
       </c>
       <c r="M48" t="n">
         <v>0.01894</v>
@@ -4369,7 +4369,7 @@
         <v>0.008</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0131638410889212</v>
+        <v>0.0131798959619962</v>
       </c>
       <c r="H49" t="n">
         <v>0.186</v>
@@ -4380,7 +4380,7 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
-        <v>0.00421</v>
+        <v>0.00424</v>
       </c>
       <c r="M49" t="n">
         <v>0.01894</v>
@@ -4450,7 +4450,7 @@
         <v>127</v>
       </c>
       <c r="G50" t="n">
-        <v>1141.50132895514</v>
+        <v>1141.5005102259</v>
       </c>
       <c r="H50" t="n">
         <v>27550</v>
@@ -4535,7 +4535,7 @@
         <v>127</v>
       </c>
       <c r="G51" t="n">
-        <v>1141.50132895514</v>
+        <v>1141.5005102259</v>
       </c>
       <c r="H51" t="n">
         <v>27550</v>
@@ -4620,7 +4620,7 @@
         <v>127</v>
       </c>
       <c r="G52" t="n">
-        <v>1141.50132895514</v>
+        <v>1141.5005102259</v>
       </c>
       <c r="H52" t="n">
         <v>27550</v>
@@ -4705,7 +4705,7 @@
         <v>127</v>
       </c>
       <c r="G53" t="n">
-        <v>1141.50132895514</v>
+        <v>1141.5005102259</v>
       </c>
       <c r="H53" t="n">
         <v>27550</v>
@@ -4790,7 +4790,7 @@
         <v>0.00768</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0124383338908751</v>
+        <v>0.0124417734563038</v>
       </c>
       <c r="H54" t="n">
         <v>0.160839160839161</v>
@@ -4871,7 +4871,7 @@
         <v>0.00768</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0124383338908751</v>
+        <v>0.0124417734563038</v>
       </c>
       <c r="H55" t="n">
         <v>0.160839160839161</v>
@@ -4952,7 +4952,7 @@
         <v>0.19</v>
       </c>
       <c r="G56" t="n">
-        <v>0.242682649149067</v>
+        <v>0.242699902791825</v>
       </c>
       <c r="H56" t="n">
         <v>0.894</v>
@@ -5033,7 +5033,7 @@
         <v>0.19</v>
       </c>
       <c r="G57" t="n">
-        <v>0.242682649149067</v>
+        <v>0.242699902791825</v>
       </c>
       <c r="H57" t="n">
         <v>0.894</v>
@@ -5107,16 +5107,16 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.227</v>
+        <v>0.2272</v>
       </c>
       <c r="G58" t="n">
-        <v>0.273050847457627</v>
+        <v>0.27304406779661</v>
       </c>
       <c r="H58" t="n">
         <v>0.9320000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7068</v>
+        <v>0.70684</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -5124,7 +5124,7 @@
         <v>0.1385</v>
       </c>
       <c r="M58" t="n">
-        <v>0.434</v>
+        <v>0.43395</v>
       </c>
       <c r="N58" t="n">
         <v>0.62806</v>
@@ -5184,16 +5184,16 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.227</v>
+        <v>0.2272</v>
       </c>
       <c r="G59" t="n">
-        <v>0.273050847457627</v>
+        <v>0.27304406779661</v>
       </c>
       <c r="H59" t="n">
         <v>0.9320000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>0.7068</v>
+        <v>0.70684</v>
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
@@ -5201,7 +5201,7 @@
         <v>0.1385</v>
       </c>
       <c r="M59" t="n">
-        <v>0.434</v>
+        <v>0.43395</v>
       </c>
       <c r="N59" t="n">
         <v>0.62806</v>
@@ -5576,7 +5576,7 @@
         <v>0.2</v>
       </c>
       <c r="G64" t="n">
-        <v>0.285363902465195</v>
+        <v>0.288567810321884</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
@@ -5657,7 +5657,7 @@
         <v>0.01</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0144968159484574</v>
+        <v>0.0145078399042521</v>
       </c>
       <c r="H65" t="n">
         <v>0.186</v>
@@ -5738,7 +5738,7 @@
         <v>0.01</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0144968159484574</v>
+        <v>0.0145078399042521</v>
       </c>
       <c r="H66" t="n">
         <v>0.186</v>
@@ -5819,7 +5819,7 @@
         <v>157</v>
       </c>
       <c r="G67" t="n">
-        <v>1197.6876935352</v>
+        <v>1197.68549977315</v>
       </c>
       <c r="H67" t="n">
         <v>27550</v>
@@ -5904,7 +5904,7 @@
         <v>157</v>
       </c>
       <c r="G68" t="n">
-        <v>1197.6876935352</v>
+        <v>1197.68549977315</v>
       </c>
       <c r="H68" t="n">
         <v>27550</v>
@@ -5989,7 +5989,7 @@
         <v>157</v>
       </c>
       <c r="G69" t="n">
-        <v>1197.6876935352</v>
+        <v>1197.68549977315</v>
       </c>
       <c r="H69" t="n">
         <v>27550</v>
@@ -6074,7 +6074,7 @@
         <v>157</v>
       </c>
       <c r="G70" t="n">
-        <v>1197.6876935352</v>
+        <v>1197.68549977315</v>
       </c>
       <c r="H70" t="n">
         <v>27550</v>
@@ -6159,7 +6159,7 @@
         <v>0.00725</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0117069478288876</v>
+        <v>0.0117134214932543</v>
       </c>
       <c r="H71" t="n">
         <v>0.160839160839161</v>
@@ -6240,7 +6240,7 @@
         <v>0.00725</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0117069478288876</v>
+        <v>0.0117134214932543</v>
       </c>
       <c r="H72" t="n">
         <v>0.160839160839161</v>
@@ -6476,10 +6476,10 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.2255</v>
+        <v>0.22575</v>
       </c>
       <c r="G75" t="n">
-        <v>0.284516666666667</v>
+        <v>0.284515</v>
       </c>
       <c r="H75" t="n">
         <v>0.9320000000000001</v>
@@ -6493,10 +6493,10 @@
         <v>0.136</v>
       </c>
       <c r="M75" t="n">
-        <v>0.4724</v>
+        <v>0.47205</v>
       </c>
       <c r="N75" t="n">
-        <v>0.663</v>
+        <v>0.66307</v>
       </c>
       <c r="O75" t="n">
         <v>1794370</v>
@@ -6553,10 +6553,10 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.2255</v>
+        <v>0.22575</v>
       </c>
       <c r="G76" t="n">
-        <v>0.284516666666667</v>
+        <v>0.284515</v>
       </c>
       <c r="H76" t="n">
         <v>0.9320000000000001</v>
@@ -6570,10 +6570,10 @@
         <v>0.136</v>
       </c>
       <c r="M76" t="n">
-        <v>0.4724</v>
+        <v>0.47205</v>
       </c>
       <c r="N76" t="n">
-        <v>0.663</v>
+        <v>0.66307</v>
       </c>
       <c r="O76" t="n">
         <v>1794370</v>
@@ -6945,7 +6945,7 @@
         <v>0.24</v>
       </c>
       <c r="G81" t="n">
-        <v>0.288211026762005</v>
+        <v>0.288223197989054</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
@@ -7026,7 +7026,7 @@
         <v>0.0125</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0160533395939438</v>
+        <v>0.0160578727145583</v>
       </c>
       <c r="H82" t="n">
         <v>0.186</v>
@@ -7107,7 +7107,7 @@
         <v>0.0125</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0160533395939438</v>
+        <v>0.0160578727145583</v>
       </c>
       <c r="H83" t="n">
         <v>0.186</v>
@@ -7188,7 +7188,7 @@
         <v>138</v>
       </c>
       <c r="G84" t="n">
-        <v>1222.85718506063</v>
+        <v>1222.85499129858</v>
       </c>
       <c r="H84" t="n">
         <v>27550</v>
@@ -7273,7 +7273,7 @@
         <v>138</v>
       </c>
       <c r="G85" t="n">
-        <v>1222.85718506063</v>
+        <v>1222.85499129858</v>
       </c>
       <c r="H85" t="n">
         <v>27550</v>
@@ -7358,7 +7358,7 @@
         <v>138</v>
       </c>
       <c r="G86" t="n">
-        <v>1222.85718506063</v>
+        <v>1222.85499129858</v>
       </c>
       <c r="H86" t="n">
         <v>27550</v>
@@ -7443,7 +7443,7 @@
         <v>138</v>
       </c>
       <c r="G87" t="n">
-        <v>1222.85718506063</v>
+        <v>1222.85499129858</v>
       </c>
       <c r="H87" t="n">
         <v>27550</v>
@@ -7528,7 +7528,7 @@
         <v>0.00682</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0117095473769411</v>
+        <v>0.0117225032005516</v>
       </c>
       <c r="H88" t="n">
         <v>0.160839160839161</v>
@@ -7609,7 +7609,7 @@
         <v>0.00682</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0117095473769411</v>
+        <v>0.0117225032005516</v>
       </c>
       <c r="H89" t="n">
         <v>0.160839160839161</v>
@@ -7845,16 +7845,16 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.2255</v>
+        <v>0.22575</v>
       </c>
       <c r="G92" t="n">
-        <v>0.28975</v>
+        <v>0.289748333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0.9320000000000001</v>
       </c>
       <c r="I92" t="n">
-        <v>0.718</v>
+        <v>0.7181</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -7862,10 +7862,10 @@
         <v>0.137</v>
       </c>
       <c r="M92" t="n">
-        <v>0.4724</v>
+        <v>0.47205</v>
       </c>
       <c r="N92" t="n">
-        <v>0.663</v>
+        <v>0.66307</v>
       </c>
       <c r="O92" t="n">
         <v>1794370</v>
@@ -7922,16 +7922,16 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.2255</v>
+        <v>0.22575</v>
       </c>
       <c r="G93" t="n">
-        <v>0.28975</v>
+        <v>0.289748333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0.9320000000000001</v>
       </c>
       <c r="I93" t="n">
-        <v>0.718</v>
+        <v>0.7181</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -7939,10 +7939,10 @@
         <v>0.137</v>
       </c>
       <c r="M93" t="n">
-        <v>0.4724</v>
+        <v>0.47205</v>
       </c>
       <c r="N93" t="n">
-        <v>0.663</v>
+        <v>0.66307</v>
       </c>
       <c r="O93" t="n">
         <v>1794370</v>
@@ -8314,7 +8314,7 @@
         <v>0.245</v>
       </c>
       <c r="G98" t="n">
-        <v>0.28201411786782</v>
+        <v>0.282025612915588</v>
       </c>
       <c r="H98" t="n">
         <v>1</v>
@@ -8557,7 +8557,7 @@
         <v>138</v>
       </c>
       <c r="G101" t="n">
-        <v>1254.66770665518</v>
+        <v>1254.66442299313</v>
       </c>
       <c r="H101" t="n">
         <v>27550</v>
@@ -8642,7 +8642,7 @@
         <v>138</v>
       </c>
       <c r="G102" t="n">
-        <v>1254.66770665518</v>
+        <v>1254.66442299313</v>
       </c>
       <c r="H102" t="n">
         <v>27550</v>
@@ -8727,7 +8727,7 @@
         <v>138</v>
       </c>
       <c r="G103" t="n">
-        <v>1254.66770665518</v>
+        <v>1254.66442299313</v>
       </c>
       <c r="H103" t="n">
         <v>27550</v>
@@ -8812,7 +8812,7 @@
         <v>138</v>
       </c>
       <c r="G104" t="n">
-        <v>1254.66770665518</v>
+        <v>1254.66442299313</v>
       </c>
       <c r="H104" t="n">
         <v>27550</v>
@@ -8897,7 +8897,7 @@
         <v>0.00528</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0125571255768328</v>
+        <v>0.01258256196098</v>
       </c>
       <c r="H105" t="n">
         <v>0.160839160839161</v>
@@ -8978,7 +8978,7 @@
         <v>0.00528</v>
       </c>
       <c r="G106" t="n">
-        <v>0.0125571255768328</v>
+        <v>0.01258256196098</v>
       </c>
       <c r="H106" t="n">
         <v>0.160839160839161</v>
@@ -9217,13 +9217,13 @@
         <v>0.2475</v>
       </c>
       <c r="G109" t="n">
-        <v>0.296066666666667</v>
+        <v>0.296065</v>
       </c>
       <c r="H109" t="n">
         <v>0.845</v>
       </c>
       <c r="I109" t="n">
-        <v>0.6975</v>
+        <v>0.69755</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -9231,7 +9231,7 @@
         <v>0.135</v>
       </c>
       <c r="M109" t="n">
-        <v>0.4724</v>
+        <v>0.47205</v>
       </c>
       <c r="N109" t="n">
         <v>0.6438</v>
@@ -9294,13 +9294,13 @@
         <v>0.2475</v>
       </c>
       <c r="G110" t="n">
-        <v>0.296066666666667</v>
+        <v>0.296065</v>
       </c>
       <c r="H110" t="n">
         <v>0.845</v>
       </c>
       <c r="I110" t="n">
-        <v>0.6975</v>
+        <v>0.69755</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -9308,7 +9308,7 @@
         <v>0.135</v>
       </c>
       <c r="M110" t="n">
-        <v>0.4724</v>
+        <v>0.47205</v>
       </c>
       <c r="N110" t="n">
         <v>0.6438</v>
@@ -9683,7 +9683,7 @@
         <v>0.25</v>
       </c>
       <c r="G115" t="n">
-        <v>0.286466196322751</v>
+        <v>0.286492593805787</v>
       </c>
       <c r="H115" t="n">
         <v>1</v>
@@ -9926,7 +9926,7 @@
         <v>97</v>
       </c>
       <c r="G118" t="n">
-        <v>1147.89898022932</v>
+        <v>1147.88674194143</v>
       </c>
       <c r="H118" t="n">
         <v>27550</v>
@@ -10011,7 +10011,7 @@
         <v>97</v>
       </c>
       <c r="G119" t="n">
-        <v>1147.89898022932</v>
+        <v>1147.88674194143</v>
       </c>
       <c r="H119" t="n">
         <v>27550</v>
@@ -10096,7 +10096,7 @@
         <v>97</v>
       </c>
       <c r="G120" t="n">
-        <v>1147.89898022932</v>
+        <v>1147.88674194143</v>
       </c>
       <c r="H120" t="n">
         <v>27550</v>
@@ -10181,7 +10181,7 @@
         <v>97</v>
       </c>
       <c r="G121" t="n">
-        <v>1147.89898022932</v>
+        <v>1147.88674194143</v>
       </c>
       <c r="H121" t="n">
         <v>27550</v>
@@ -10266,7 +10266,7 @@
         <v>0.0048</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0099693212874645</v>
+        <v>0.0100011482662893</v>
       </c>
       <c r="H122" t="n">
         <v>0.0568364227638777</v>
@@ -10347,7 +10347,7 @@
         <v>0.0048</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0099693212874645</v>
+        <v>0.0100011482662893</v>
       </c>
       <c r="H123" t="n">
         <v>0.0568364227638777</v>
@@ -10586,7 +10586,7 @@
         <v>0.2475</v>
       </c>
       <c r="G126" t="n">
-        <v>0.302133333333333</v>
+        <v>0.302135</v>
       </c>
       <c r="H126" t="n">
         <v>0.845</v>
@@ -10663,7 +10663,7 @@
         <v>0.2475</v>
       </c>
       <c r="G127" t="n">
-        <v>0.302133333333333</v>
+        <v>0.302135</v>
       </c>
       <c r="H127" t="n">
         <v>0.845</v>
@@ -11052,7 +11052,7 @@
         <v>0.25</v>
       </c>
       <c r="G132" t="n">
-        <v>0.28174959610234</v>
+        <v>0.281759368284281</v>
       </c>
       <c r="H132" t="n">
         <v>0.97</v>
@@ -11295,7 +11295,7 @@
         <v>100</v>
       </c>
       <c r="G135" t="n">
-        <v>684.010003647711</v>
+        <v>683.988987020988</v>
       </c>
       <c r="H135" t="n">
         <v>6900</v>
@@ -11380,7 +11380,7 @@
         <v>100</v>
       </c>
       <c r="G136" t="n">
-        <v>684.010003647711</v>
+        <v>683.988987020988</v>
       </c>
       <c r="H136" t="n">
         <v>6900</v>
@@ -11465,7 +11465,7 @@
         <v>100</v>
       </c>
       <c r="G137" t="n">
-        <v>684.010003647711</v>
+        <v>683.988987020988</v>
       </c>
       <c r="H137" t="n">
         <v>6900</v>
@@ -11550,7 +11550,7 @@
         <v>100</v>
       </c>
       <c r="G138" t="n">
-        <v>684.010003647711</v>
+        <v>683.988987020988</v>
       </c>
       <c r="H138" t="n">
         <v>6900</v>
@@ -11635,7 +11635,7 @@
         <v>0.00699</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0113804643925749</v>
+        <v>0.011419629817621</v>
       </c>
       <c r="H139" t="n">
         <v>0.0568364227638777</v>
@@ -11649,7 +11649,7 @@
         <v>0.01224</v>
       </c>
       <c r="M139" t="n">
-        <v>0.02046</v>
+        <v>0.02066</v>
       </c>
       <c r="N139" t="n">
         <v>0.03098</v>
@@ -11716,7 +11716,7 @@
         <v>0.00699</v>
       </c>
       <c r="G140" t="n">
-        <v>0.0113804643925749</v>
+        <v>0.011419629817621</v>
       </c>
       <c r="H140" t="n">
         <v>0.0568364227638777</v>
@@ -11730,7 +11730,7 @@
         <v>0.01224</v>
       </c>
       <c r="M140" t="n">
-        <v>0.02046</v>
+        <v>0.02066</v>
       </c>
       <c r="N140" t="n">
         <v>0.03098</v>
@@ -11955,7 +11955,7 @@
         <v>0.255</v>
       </c>
       <c r="G143" t="n">
-        <v>0.30675</v>
+        <v>0.30676</v>
       </c>
       <c r="H143" t="n">
         <v>0.845</v>
@@ -12032,7 +12032,7 @@
         <v>0.255</v>
       </c>
       <c r="G144" t="n">
-        <v>0.30675</v>
+        <v>0.30676</v>
       </c>
       <c r="H144" t="n">
         <v>0.845</v>
@@ -12421,7 +12421,7 @@
         <v>0.25</v>
       </c>
       <c r="G149" t="n">
-        <v>0.257318160196825</v>
+        <v>0.257329465270051</v>
       </c>
       <c r="H149" t="n">
         <v>0.8</v>
@@ -12664,7 +12664,7 @@
         <v>81</v>
       </c>
       <c r="G152" t="n">
-        <v>599.878259662279</v>
+        <v>599.8409035652491</v>
       </c>
       <c r="H152" t="n">
         <v>6900</v>
@@ -12679,7 +12679,7 @@
         <v>25.4237288135593</v>
       </c>
       <c r="L152" t="n">
-        <v>6.43829</v>
+        <v>6.24546</v>
       </c>
       <c r="M152" t="n">
         <v>449.3</v>
@@ -12749,7 +12749,7 @@
         <v>81</v>
       </c>
       <c r="G153" t="n">
-        <v>599.878259662279</v>
+        <v>599.8409035652491</v>
       </c>
       <c r="H153" t="n">
         <v>6900</v>
@@ -12764,7 +12764,7 @@
         <v>25.4237288135593</v>
       </c>
       <c r="L153" t="n">
-        <v>6.43829</v>
+        <v>6.24546</v>
       </c>
       <c r="M153" t="n">
         <v>449.3</v>
@@ -12834,7 +12834,7 @@
         <v>81</v>
       </c>
       <c r="G154" t="n">
-        <v>599.878259662279</v>
+        <v>599.8409035652491</v>
       </c>
       <c r="H154" t="n">
         <v>6900</v>
@@ -12849,7 +12849,7 @@
         <v>25.4237288135593</v>
       </c>
       <c r="L154" t="n">
-        <v>6.43829</v>
+        <v>6.24546</v>
       </c>
       <c r="M154" t="n">
         <v>449.3</v>
@@ -12919,7 +12919,7 @@
         <v>81</v>
       </c>
       <c r="G155" t="n">
-        <v>599.878259662279</v>
+        <v>599.8409035652491</v>
       </c>
       <c r="H155" t="n">
         <v>6900</v>
@@ -12934,7 +12934,7 @@
         <v>25.4237288135593</v>
       </c>
       <c r="L155" t="n">
-        <v>6.43829</v>
+        <v>6.24546</v>
       </c>
       <c r="M155" t="n">
         <v>449.3</v>
@@ -13004,7 +13004,7 @@
         <v>0.00769</v>
       </c>
       <c r="G156" t="n">
-        <v>0.0126339915848068</v>
+        <v>0.0126697770855958</v>
       </c>
       <c r="H156" t="n">
         <v>0.0568364227638777</v>
@@ -13085,7 +13085,7 @@
         <v>0.00769</v>
       </c>
       <c r="G157" t="n">
-        <v>0.0126339915848068</v>
+        <v>0.0126697770855958</v>
       </c>
       <c r="H157" t="n">
         <v>0.0568364227638777</v>
@@ -13790,7 +13790,7 @@
         <v>0.25</v>
       </c>
       <c r="G166" t="n">
-        <v>0.265595542821489</v>
+        <v>0.265610326378784</v>
       </c>
       <c r="H166" t="n">
         <v>0.8</v>
@@ -14033,7 +14033,7 @@
         <v>110</v>
       </c>
       <c r="G169" t="n">
-        <v>740.6301692779519</v>
+        <v>740.5856174282929</v>
       </c>
       <c r="H169" t="n">
         <v>9700</v>
@@ -14048,7 +14048,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L169" t="n">
-        <v>4.63998</v>
+        <v>4.27315</v>
       </c>
       <c r="M169" t="n">
         <v>458.7</v>
@@ -14118,7 +14118,7 @@
         <v>110</v>
       </c>
       <c r="G170" t="n">
-        <v>740.6301692779519</v>
+        <v>740.5856174282929</v>
       </c>
       <c r="H170" t="n">
         <v>9700</v>
@@ -14133,7 +14133,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L170" t="n">
-        <v>4.63998</v>
+        <v>4.27315</v>
       </c>
       <c r="M170" t="n">
         <v>458.7</v>
@@ -14203,7 +14203,7 @@
         <v>110</v>
       </c>
       <c r="G171" t="n">
-        <v>740.6301692779519</v>
+        <v>740.5856174282929</v>
       </c>
       <c r="H171" t="n">
         <v>9700</v>
@@ -14218,7 +14218,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L171" t="n">
-        <v>4.63998</v>
+        <v>4.27315</v>
       </c>
       <c r="M171" t="n">
         <v>458.7</v>
@@ -14288,7 +14288,7 @@
         <v>110</v>
       </c>
       <c r="G172" t="n">
-        <v>740.6301692779519</v>
+        <v>740.5856174282929</v>
       </c>
       <c r="H172" t="n">
         <v>9700</v>
@@ -14303,7 +14303,7 @@
         <v>28.8135593220339</v>
       </c>
       <c r="L172" t="n">
-        <v>4.63998</v>
+        <v>4.27315</v>
       </c>
       <c r="M172" t="n">
         <v>458.7</v>
@@ -14373,7 +14373,7 @@
         <v>0.00746</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0114214379109502</v>
+        <v>0.0114490771270096</v>
       </c>
       <c r="H173" t="n">
         <v>0.0568364227638777</v>
@@ -14387,7 +14387,7 @@
         <v>0.01189</v>
       </c>
       <c r="M173" t="n">
-        <v>0.01971</v>
+        <v>0.02015</v>
       </c>
       <c r="N173" t="n">
         <v>0.02832</v>
@@ -14454,7 +14454,7 @@
         <v>0.00746</v>
       </c>
       <c r="G174" t="n">
-        <v>0.0114214379109502</v>
+        <v>0.0114490771270096</v>
       </c>
       <c r="H174" t="n">
         <v>0.0568364227638777</v>
@@ -14468,7 +14468,7 @@
         <v>0.01189</v>
       </c>
       <c r="M174" t="n">
-        <v>0.01971</v>
+        <v>0.02015</v>
       </c>
       <c r="N174" t="n">
         <v>0.02832</v>
@@ -15159,7 +15159,7 @@
         <v>0.2</v>
       </c>
       <c r="G183" t="n">
-        <v>0.23610836333431</v>
+        <v>0.236123146891605</v>
       </c>
       <c r="H183" t="n">
         <v>0.8</v>
@@ -15402,7 +15402,7 @@
         <v>110</v>
       </c>
       <c r="G186" t="n">
-        <v>640.6163417265479</v>
+        <v>640.537875974567</v>
       </c>
       <c r="H186" t="n">
         <v>9700</v>
@@ -15417,7 +15417,7 @@
         <v>27.1186440677966</v>
       </c>
       <c r="L186" t="n">
-        <v>5.11962</v>
+        <v>4.71452</v>
       </c>
       <c r="M186" t="n">
         <v>602.9</v>
@@ -15487,7 +15487,7 @@
         <v>110</v>
       </c>
       <c r="G187" t="n">
-        <v>640.6163417265479</v>
+        <v>640.537875974567</v>
       </c>
       <c r="H187" t="n">
         <v>9700</v>
@@ -15502,7 +15502,7 @@
         <v>27.1186440677966</v>
       </c>
       <c r="L187" t="n">
-        <v>5.11962</v>
+        <v>4.71452</v>
       </c>
       <c r="M187" t="n">
         <v>602.9</v>
@@ -15572,7 +15572,7 @@
         <v>110</v>
       </c>
       <c r="G188" t="n">
-        <v>640.6163417265479</v>
+        <v>640.537875974567</v>
       </c>
       <c r="H188" t="n">
         <v>9700</v>
@@ -15587,7 +15587,7 @@
         <v>27.1186440677966</v>
       </c>
       <c r="L188" t="n">
-        <v>5.11962</v>
+        <v>4.71452</v>
       </c>
       <c r="M188" t="n">
         <v>602.9</v>
@@ -15657,7 +15657,7 @@
         <v>110</v>
       </c>
       <c r="G189" t="n">
-        <v>640.6163417265479</v>
+        <v>640.537875974567</v>
       </c>
       <c r="H189" t="n">
         <v>9700</v>
@@ -15672,7 +15672,7 @@
         <v>27.1186440677966</v>
       </c>
       <c r="L189" t="n">
-        <v>5.11962</v>
+        <v>4.71452</v>
       </c>
       <c r="M189" t="n">
         <v>602.9</v>
@@ -15742,7 +15742,7 @@
         <v>0.007979999999999999</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0126842934600243</v>
+        <v>0.0126990394669156</v>
       </c>
       <c r="H190" t="n">
         <v>0.05</v>
@@ -15823,7 +15823,7 @@
         <v>0.007979999999999999</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0126842934600243</v>
+        <v>0.0126990394669156</v>
       </c>
       <c r="H191" t="n">
         <v>0.05</v>
@@ -16216,7 +16216,7 @@
         <v>0.45</v>
       </c>
       <c r="G196" t="n">
-        <v>0.6313883781917971</v>
+        <v>0.631406197872614</v>
       </c>
       <c r="H196" t="n">
         <v>3.22</v>
@@ -16293,7 +16293,7 @@
         <v>0.45</v>
       </c>
       <c r="G197" t="n">
-        <v>0.6313883781917971</v>
+        <v>0.631406197872614</v>
       </c>
       <c r="H197" t="n">
         <v>3.22</v>
@@ -16498,6 +16498,1375 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.213637853326763</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.0138965517241379</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0.0338</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M201" t="n">
+        <v>0.02164</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.0138965517241379</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.0338</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M202" t="n">
+        <v>0.02164</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>100</v>
+      </c>
+      <c r="G203" t="n">
+        <v>581.330939855523</v>
+      </c>
+      <c r="H203" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I203" t="n">
+        <v>2752.9</v>
+      </c>
+      <c r="J203" t="n">
+        <v>17.5438596491228</v>
+      </c>
+      <c r="K203" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="L203" t="n">
+        <v>6.85038</v>
+      </c>
+      <c r="M203" t="n">
+        <v>586.8</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1770.12</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>100</v>
+      </c>
+      <c r="G204" t="n">
+        <v>581.330939855523</v>
+      </c>
+      <c r="H204" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I204" t="n">
+        <v>2752.9</v>
+      </c>
+      <c r="J204" t="n">
+        <v>17.5438596491228</v>
+      </c>
+      <c r="K204" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="L204" t="n">
+        <v>6.85038</v>
+      </c>
+      <c r="M204" t="n">
+        <v>586.8</v>
+      </c>
+      <c r="N204" t="n">
+        <v>1770.12</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>100</v>
+      </c>
+      <c r="G205" t="n">
+        <v>581.330939855523</v>
+      </c>
+      <c r="H205" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I205" t="n">
+        <v>2752.9</v>
+      </c>
+      <c r="J205" t="n">
+        <v>17.5438596491228</v>
+      </c>
+      <c r="K205" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="L205" t="n">
+        <v>6.85038</v>
+      </c>
+      <c r="M205" t="n">
+        <v>586.8</v>
+      </c>
+      <c r="N205" t="n">
+        <v>1770.12</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F206" t="n">
+        <v>100</v>
+      </c>
+      <c r="G206" t="n">
+        <v>581.330939855523</v>
+      </c>
+      <c r="H206" t="n">
+        <v>9700</v>
+      </c>
+      <c r="I206" t="n">
+        <v>2752.9</v>
+      </c>
+      <c r="J206" t="n">
+        <v>17.5438596491228</v>
+      </c>
+      <c r="K206" t="n">
+        <v>24.5614035087719</v>
+      </c>
+      <c r="L206" t="n">
+        <v>6.85038</v>
+      </c>
+      <c r="M206" t="n">
+        <v>586.8</v>
+      </c>
+      <c r="N206" t="n">
+        <v>1770.12</v>
+      </c>
+      <c r="O206" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P206" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F207" t="n">
+        <v>0.01136</v>
+      </c>
+      <c r="G207" t="n">
+        <v>0.0127953013246877</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0.03077</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>0.01329</v>
+      </c>
+      <c r="M207" t="n">
+        <v>0.01994</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0.02539</v>
+      </c>
+      <c r="O207" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P207" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F208" t="n">
+        <v>0.01136</v>
+      </c>
+      <c r="G208" t="n">
+        <v>0.0127953013246877</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0.03077</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>0.01329</v>
+      </c>
+      <c r="M208" t="n">
+        <v>0.01994</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0.02539</v>
+      </c>
+      <c r="O208" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P208" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F209" t="n">
+        <v>0.2585</v>
+      </c>
+      <c r="G209" t="n">
+        <v>0.297034482758621</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0.6682</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M209" t="n">
+        <v>0.5038</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0.59848</v>
+      </c>
+      <c r="O209" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P209" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.2585</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.297034482758621</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.6682</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.5038</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.59848</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="G211" t="n">
+        <v>0.33101724137931</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M211" t="n">
+        <v>0.51668</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0.61688</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="G212" t="n">
+        <v>0.33101724137931</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="M212" t="n">
+        <v>0.51668</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0.61688</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.592292511629039</v>
+      </c>
+      <c r="H213" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I213" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.8292</v>
+      </c>
+      <c r="N213" t="n">
+        <v>1.0586</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.592292511629039</v>
+      </c>
+      <c r="H214" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I214" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.8292</v>
+      </c>
+      <c r="N214" t="n">
+        <v>1.0586</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="G215" t="n">
+        <v>0.132672413793103</v>
+      </c>
+      <c r="H215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0.4076</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="M215" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0.24572</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Whangaehu at Kauangaroa</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.06850000000000001</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.132672413793103</v>
+      </c>
+      <c r="H216" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.4076</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.24572</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1794370</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5578002</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Whau_3a</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
+++ b/state_results/Rivers/WhangaehuatKauangaroa_a8357d22ce.xlsx
@@ -570,7 +570,7 @@
         <v>0.17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.258085840965811</v>
+        <v>0.262650857731936</v>
       </c>
       <c r="H2" t="n">
         <v>1.38</v>
@@ -584,7 +584,7 @@
         <v>0.1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.372</v>
+        <v>0.438</v>
       </c>
       <c r="N2" t="n">
         <v>0.62</v>
@@ -1623,7 +1623,7 @@
         <v>0.15</v>
       </c>
       <c r="G15" t="n">
-        <v>0.259553210999342</v>
+        <v>0.2630647623579</v>
       </c>
       <c r="H15" t="n">
         <v>1.38</v>
@@ -1637,7 +1637,7 @@
         <v>0.1</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4157</v>
+        <v>0.43</v>
       </c>
       <c r="N15" t="n">
         <v>0.676</v>
@@ -2838,7 +2838,7 @@
         <v>0.15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.250664800591313</v>
+        <v>0.253459708815471</v>
       </c>
       <c r="H30" t="n">
         <v>1.38</v>
@@ -4207,7 +4207,7 @@
         <v>0.15</v>
       </c>
       <c r="G47" t="n">
-        <v>0.240754251559512</v>
+        <v>0.24354915978367</v>
       </c>
       <c r="H47" t="n">
         <v>1</v>
@@ -5576,7 +5576,7 @@
         <v>0.2</v>
       </c>
       <c r="G64" t="n">
-        <v>0.288567810321884</v>
+        <v>0.291253114301957</v>
       </c>
       <c r="H64" t="n">
         <v>1</v>
